--- a/split_bill.xlsx
+++ b/split_bill.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\split_bill_apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\split_bill_apps\split-bill-apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1C4E1-0C94-4EB5-ADBD-FAEAB6AB6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093534AF-893B-45A3-A525-AD07161743AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{26CED7C3-5BAB-4AB2-8D51-8CB26EFA9D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="manual" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>All</t>
   </si>
@@ -142,17 +165,30 @@
   </si>
   <si>
     <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>Paid by</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,12 +243,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -216,6 +269,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -533,9 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35425F6E-7C63-479B-A22D-A1820389DA1B}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -726,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <f>C8*D8</f>
+        <f t="shared" ref="E8:E14" si="0">C8*D8</f>
         <v>185720</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -750,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E9:E14" si="0">C9*D9</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -901,6 +959,248 @@
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B99E27D-1682-4138-99B9-B06F87B839F6}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="str" cm="1">
+        <f t="array" ref="A2:A4">_xlfn.UNIQUE(Sheet1!G2:G15)</f>
+        <v>Alvin</v>
+      </c>
+      <c r="B2" s="7">
+        <f>SUMIF(Sheet1!$G$2:$G$15,A2,Sheet1!$E$2:$E$15)</f>
+        <v>1053503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <v>Ammar</v>
+      </c>
+      <c r="B3" s="7">
+        <f>SUMIF(Sheet1!$G$2:$G$15,A3,Sheet1!$E$2:$E$15)</f>
+        <v>409840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="str">
+        <v>Mir</v>
+      </c>
+      <c r="B4" s="7">
+        <f>SUMIF(Sheet1!$G$2:$G$15,A4,Sheet1!$E$2:$E$15)</f>
+        <v>185720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <f>(Sheet1!E2/5)+(Sheet1!E5/5)+(Sheet1!E6/5)+(Sheet1!E3/3)+(Sheet1!E4/3)</f>
+        <v>258367.26666666666</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(C7:C9)</f>
+        <v>377319.26666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <f>(Sheet1!E8/5)</f>
+        <v>37144</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="10">
+        <f>(Sheet1!E7/5)+Sheet1!E9+Sheet1!E10</f>
+        <v>81808</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <f>(Sheet1!E2/5)+(Sheet1!E5/5)+(Sheet1!E6/5)+(Sheet1!E3/3)+(Sheet1!E4/3)</f>
+        <v>258367.26666666666</v>
+      </c>
+      <c r="D10" s="11">
+        <f>SUM(C10:C12)</f>
+        <v>363719.26666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="10">
+        <f>Sheet1!E8/5</f>
+        <v>37144</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="10">
+        <f>(Sheet1!E7/5)</f>
+        <v>68208</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <f>(Sheet1!E2/5)+(Sheet1!E5/5)+(Sheet1!E6/5)</f>
+        <v>139200.6</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(C13:C15)</f>
+        <v>277452.59999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10">
+        <f>Sheet1!E8/5</f>
+        <v>37144</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <f>(Sheet1!E7/5)+Sheet1!E11+Sheet1!E12+Sheet1!E15</f>
+        <v>101108</v>
+      </c>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(Sheet1!E2/5)+(Sheet1!E5/5)+(Sheet1!E6/5)+(Sheet1!E3/3)+(Sheet1!E4/3)</f>
+        <v>258367.26666666666</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(C16:C18)</f>
+        <v>379219.26666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="10">
+        <f>Sheet1!E8/5</f>
+        <v>37144</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10">
+        <f>(Sheet1!E7/5)+Sheet1!E13</f>
+        <v>83708</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <f>(Sheet1!E2/5)+(Sheet1!E5/5)+(Sheet1!E6/5)</f>
+        <v>139200.6</v>
+      </c>
+      <c r="D19" s="11">
+        <f>SUM(C19:C21)</f>
+        <v>251352.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10">
+        <f>Sheet1!E8/5</f>
+        <v>37144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10">
+        <f>(Sheet1!E7/5)+Sheet1!E14</f>
+        <v>75008</v>
       </c>
     </row>
   </sheetData>
